--- a/p5/7/1-3.xlsx
+++ b/p5/7/1-3.xlsx
@@ -602,6 +602,1185 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>#1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1-3'!$K$3:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Banana</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bag of Organic Bananas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Organic Strawberries</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic Baby Spinach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Organic Hass Avocado</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Organic Avocado</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Large Lemon</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Strawberries</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Organic Whole Milk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Organic Raspberries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-3'!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>23.47105689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.81644485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.56924699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7316892700000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.291107950000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.667477310000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0677597490000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.44867822</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.99222056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.43689496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5ED-49C2-8BA5-429FA228E260}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>#2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1-3'!$K$3:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Banana</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bag of Organic Bananas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Organic Strawberries</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic Baby Spinach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Organic Hass Avocado</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Organic Avocado</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Large Lemon</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Strawberries</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Organic Whole Milk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Organic Raspberries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-3'!$N$3:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.02030409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.95533008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.241371750000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.344285940000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.41525582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.26584283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3235161180000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.87050108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.853477639999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.77332221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5ED-49C2-8BA5-429FA228E260}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>#3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1-3'!$K$3:$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Banana</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bag of Organic Bananas</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Organic Strawberries</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic Baby Spinach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Organic Hass Avocado</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Organic Avocado</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Large Lemon</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Strawberries</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Organic Whole Milk</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Organic Raspberries</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1-3'!$O$3:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.39554347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.90604823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.50653045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.043361259999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.336055139999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.45717275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3300667510000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.95410315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.10526428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.854573800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E5ED-49C2-8BA5-429FA228E260}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="573886719"/>
+        <c:axId val="573889215"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="573886719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573889215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="573889215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573886719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -869,7 +2048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -933,96 +2114,96 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>13176</v>
+        <v>24852</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>379450</v>
+        <v>472565</v>
       </c>
       <c r="D3">
-        <v>13176</v>
+        <v>24852</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>78988</v>
+        <v>110916</v>
       </c>
       <c r="G3">
-        <v>13176</v>
+        <v>24852</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>64337</v>
+        <v>80432</v>
       </c>
       <c r="J3">
-        <v>13176</v>
+        <v>24852</v>
       </c>
       <c r="K3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>48972</v>
+        <v>58577</v>
       </c>
       <c r="M3">
-        <v>20.81644485</v>
+        <v>23.47105689</v>
       </c>
       <c r="N3">
-        <v>16.95533008</v>
+        <v>17.02030409</v>
       </c>
       <c r="O3">
-        <v>12.90604823</v>
+        <v>12.39554347</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>16797</v>
+        <v>13176</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>142951</v>
+        <v>379450</v>
       </c>
       <c r="D4">
-        <v>16797</v>
+        <v>13176</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>16366</v>
+        <v>78988</v>
       </c>
       <c r="G4">
-        <v>16797</v>
+        <v>13176</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>16969</v>
+        <v>64337</v>
       </c>
       <c r="J4">
-        <v>16797</v>
+        <v>13176</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>15659</v>
+        <v>48972</v>
       </c>
       <c r="M4">
-        <v>11.44867822</v>
+        <v>20.81644485</v>
       </c>
       <c r="N4">
-        <v>11.87050108</v>
+        <v>16.95533008</v>
       </c>
       <c r="O4">
-        <v>10.95410315</v>
+        <v>12.90604823</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1121,287 +2302,291 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>24852</v>
+        <v>47209</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>472565</v>
+        <v>213584</v>
       </c>
       <c r="D7">
-        <v>24852</v>
+        <v>47209</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>110916</v>
+        <v>24116</v>
       </c>
       <c r="G7">
-        <v>24852</v>
+        <v>47209</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>80432</v>
+        <v>26517</v>
       </c>
       <c r="J7">
-        <v>24852</v>
+        <v>47209</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L7">
-        <v>58577</v>
+        <v>24212</v>
       </c>
       <c r="M7">
-        <v>23.47105689</v>
+        <v>11.291107950000001</v>
       </c>
       <c r="N7">
-        <v>17.02030409</v>
+        <v>12.41525582</v>
       </c>
       <c r="O7">
-        <v>12.39554347</v>
+        <v>11.336055139999999</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>26209</v>
+        <v>47766</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>140627</v>
+        <v>176815</v>
       </c>
       <c r="D8">
-        <v>27845</v>
+        <v>47766</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>30927</v>
+        <v>22398</v>
       </c>
       <c r="G8">
-        <v>27845</v>
+        <v>47766</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>20888</v>
+        <v>23456</v>
       </c>
       <c r="J8">
-        <v>27845</v>
+        <v>47766</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L8">
-        <v>15617</v>
+        <v>20258</v>
       </c>
       <c r="M8">
-        <v>21.99222056</v>
+        <v>12.667477310000001</v>
       </c>
       <c r="N8">
-        <v>14.853477639999999</v>
+        <v>13.26584283</v>
       </c>
       <c r="O8">
-        <v>11.10526428</v>
+        <v>11.45717275</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>27845</v>
+        <v>47626</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>137905</v>
+        <v>152657</v>
       </c>
       <c r="D9">
-        <v>27966</v>
+        <v>47626</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>14393</v>
+        <v>12316</v>
       </c>
       <c r="G9">
-        <v>27966</v>
+        <v>47626</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9">
-        <v>16236</v>
+        <v>14233</v>
       </c>
       <c r="J9">
-        <v>27966</v>
+        <v>47626</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>14969</v>
+        <v>14243</v>
       </c>
       <c r="M9">
-        <v>10.43689496</v>
+        <v>8.0677597490000004</v>
       </c>
       <c r="N9">
-        <v>11.77332221</v>
+        <v>9.3235161180000006</v>
       </c>
       <c r="O9">
-        <v>10.854573800000001</v>
+        <v>9.3300667510000004</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>47209</v>
+        <v>16797</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>213584</v>
+        <v>142951</v>
       </c>
       <c r="D10">
-        <v>47209</v>
+        <v>16797</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>24116</v>
+        <v>16366</v>
       </c>
       <c r="G10">
-        <v>47209</v>
+        <v>16797</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>26517</v>
+        <v>16969</v>
       </c>
       <c r="J10">
-        <v>47209</v>
+        <v>16797</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>24212</v>
+        <v>15659</v>
       </c>
       <c r="M10">
-        <v>11.291107950000001</v>
+        <v>11.44867822</v>
       </c>
       <c r="N10">
-        <v>12.41525582</v>
+        <v>11.87050108</v>
       </c>
       <c r="O10">
-        <v>11.336055139999999</v>
+        <v>10.95410315</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>47626</v>
+        <v>26209</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>152657</v>
+        <v>140627</v>
       </c>
       <c r="D11">
-        <v>47626</v>
+        <v>27845</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>12316</v>
+        <v>30927</v>
       </c>
       <c r="G11">
-        <v>47626</v>
+        <v>27845</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>14233</v>
+        <v>20888</v>
       </c>
       <c r="J11">
-        <v>47626</v>
+        <v>27845</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>14243</v>
+        <v>15617</v>
       </c>
       <c r="M11">
-        <v>8.0677597490000004</v>
+        <v>21.99222056</v>
       </c>
       <c r="N11">
-        <v>9.3235161180000006</v>
+        <v>14.853477639999999</v>
       </c>
       <c r="O11">
-        <v>9.3300667510000004</v>
+        <v>11.10526428</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>47766</v>
+        <v>27845</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>176815</v>
+        <v>137905</v>
       </c>
       <c r="D12">
-        <v>47766</v>
+        <v>27966</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>22398</v>
+        <v>14393</v>
       </c>
       <c r="G12">
-        <v>47766</v>
+        <v>27966</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>23456</v>
+        <v>16236</v>
       </c>
       <c r="J12">
-        <v>47766</v>
+        <v>27966</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>20258</v>
+        <v>14969</v>
       </c>
       <c r="M12">
-        <v>12.667477310000001</v>
+        <v>10.43689496</v>
       </c>
       <c r="N12">
-        <v>13.26584283</v>
+        <v>11.77332221</v>
       </c>
       <c r="O12">
-        <v>11.45717275</v>
+        <v>10.854573800000001</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:O12">
+    <sortCondition descending="1" ref="C3:C12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>